--- a/biology/Zoologie/Anomalure_aptère/Anomalure_aptère.xlsx
+++ b/biology/Zoologie/Anomalure_aptère/Anomalure_aptère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anomalure_apt%C3%A8re</t>
+          <t>Anomalure_aptère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zenkerella insignis
 L'Anomalure aptère (Zenkerella insignis) est l'unique espèce du genre Zenkerella, dans la famille des Anomaluridae. Ce rongeur africain est le seul des Anomaluridés à ne pas être un « écureuil volant » capable de planer. C'est le zoologiste allemand Paul Matschie (1861-1926) qui a créé l'espèce en 1898.
-Cet anomalure est une espèce extrêmement méconnue et rare. Il s'agit en fait d'un fossile vivant qui a très peu évolué[1]. Longtemps connu uniquement sous forme de fossiles ou de restes épars, aucun spécimen complet n'avait été observé jusqu'au 17 août 2016, jour où des scientifiques sont parvenus à en piéger trois sur l'ile de Bioko en Guinée équatoriale[2].
+Cet anomalure est une espèce extrêmement méconnue et rare. Il s'agit en fait d'un fossile vivant qui a très peu évolué. Longtemps connu uniquement sous forme de fossiles ou de restes épars, aucun spécimen complet n'avait été observé jusqu'au 17 août 2016, jour où des scientifiques sont parvenus à en piéger trois sur l'ile de Bioko en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anomalure_apt%C3%A8re</t>
+          <t>Anomalure_aptère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique valide : Zenkerella insignis Matschie, 1898
 Synonyme scientifique : Aethurus glirinus (de Winton, 1898)
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Anomalure aptère[3],[4],[2]
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Zenkerelle[3],[4] ou Écureuil non volant à queue écailleuse[3].</t>
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Anomalure aptère
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Zenkerelle, ou Écureuil non volant à queue écailleuse.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anomalure_apt%C3%A8re</t>
+          <t>Anomalure_aptère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 18 à 23 cm de long (plus la queue qui mesure de 15 à 17 cm) et pèse de 180 à 220 g.
 Il est dépourvu de patagium, contrairement aux autres membres de la famille des Anomaluridés.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anomalure_apt%C3%A8re</t>
+          <t>Anomalure_aptère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente au Cameroun, en Guinée équatoriale (dont l'île Bioko), en République du Congo et en République centrafricaine. Elle vit dans la forêt tropicale humide, la forêt semi-décidue et la savane arborée. Elle peut apparemment s'adapter à des climats variables allant du très humide au relativement sec[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente au Cameroun, en Guinée équatoriale (dont l'île Bioko), en République du Congo et en République centrafricaine. Elle vit dans la forêt tropicale humide, la forêt semi-décidue et la savane arborée. Elle peut apparemment s'adapter à des climats variables allant du très humide au relativement sec.
 </t>
         </is>
       </c>
